--- a/VersionRecords/Version 5.2.11 20170214/版本Bug和特性计划及评审表v5.2.11.xlsx
+++ b/VersionRecords/Version 5.2.11 20170214/版本Bug和特性计划及评审表v5.2.11.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.2.11 20170214\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="246">
   <si>
     <t>No</t>
   </si>
@@ -182,6 +177,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>B</t>
@@ -191,6 +187,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>S</t>
@@ -788,11 +785,51 @@
     <t>如有错，需开发修复</t>
     <phoneticPr fontId="29" type="noConversion"/>
   </si>
+  <si>
+    <t>mogo_trade_TaskTracker</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>JG组</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>金融申请时间限制</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨斌</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏玉军</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>com.mogoroom.tasktracker.task.LoanBizReminder</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoanBizReminder</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"taskImpl":"com.mogoroom.tasktracker.task.LoanBizReminder"}</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>每10分钟执行一次</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
+  <si>
+    <t>如有错，需开发修复</t>
+    <phoneticPr fontId="31" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="34">
     <font>
       <sz val="11"/>
@@ -805,12 +842,14 @@
       <sz val="11"/>
       <color indexed="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -818,6 +857,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -825,12 +865,14 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -838,6 +880,7 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -845,12 +888,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -858,35 +903,40 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="华文仿宋"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="63"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="0" tint="-0.249977111117893"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Microsoft YaHei"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -905,19 +955,22 @@
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="微软雅黑"/>
-      <charset val="136"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -931,12 +984,14 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -944,12 +999,14 @@
       <b/>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -962,17 +1019,20 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1283,7 +1343,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1674,6 +1734,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="13" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1701,41 +1797,14 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="10" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="1" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1752,7 +1821,7 @@
     <cellStyle name="常规 9" xfId="4"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
     <cellStyle name="甘特图" xfId="3"/>
-    <cellStyle name="着色 4" xfId="5" builtinId="41"/>
+    <cellStyle name="强调文字颜色 4" xfId="5" builtinId="41"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1771,6 +1840,74 @@
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1790,7 +1927,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2110,11 +2247,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4257,7 +4394,7 @@
       <c r="Q35" s="84">
         <v>42781</v>
       </c>
-      <c r="R35" s="139" t="s">
+      <c r="R35" s="130" t="s">
         <v>211</v>
       </c>
       <c r="S35" s="101"/>
@@ -4316,7 +4453,7 @@
       <c r="Q36" s="84">
         <v>42781</v>
       </c>
-      <c r="R36" s="139" t="s">
+      <c r="R36" s="130" t="s">
         <v>214</v>
       </c>
       <c r="S36" s="103"/>
@@ -4375,7 +4512,7 @@
       <c r="Q37" s="84">
         <v>42781</v>
       </c>
-      <c r="R37" s="139" t="s">
+      <c r="R37" s="130" t="s">
         <v>220</v>
       </c>
       <c r="S37" s="103"/>
@@ -7610,11 +7747,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
@@ -7694,77 +7831,111 @@
       </c>
     </row>
     <row r="2" spans="1:18" ht="77.25" customHeight="1">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="131" t="s">
         <v>221</v>
       </c>
-      <c r="B2" s="141" t="s">
+      <c r="B2" s="132" t="s">
         <v>222</v>
       </c>
-      <c r="C2" s="141" t="s">
+      <c r="C2" s="132" t="s">
         <v>223</v>
       </c>
-      <c r="D2" s="142" t="s">
+      <c r="D2" s="133" t="s">
         <v>224</v>
       </c>
-      <c r="E2" s="141" t="s">
+      <c r="E2" s="132" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="143" t="s">
+      <c r="F2" s="134" t="s">
         <v>226</v>
       </c>
-      <c r="G2" s="144" t="s">
+      <c r="G2" s="135" t="s">
         <v>227</v>
       </c>
-      <c r="H2" s="145" t="s">
+      <c r="H2" s="136" t="s">
         <v>228</v>
       </c>
-      <c r="I2" s="146" t="s">
+      <c r="I2" s="137" t="s">
         <v>88</v>
       </c>
-      <c r="J2" s="147" t="s">
+      <c r="J2" s="138" t="s">
         <v>229</v>
       </c>
-      <c r="K2" s="148" t="s">
+      <c r="K2" s="139" t="s">
         <v>230</v>
       </c>
-      <c r="L2" s="147" t="s">
+      <c r="L2" s="138" t="s">
         <v>231</v>
       </c>
-      <c r="M2" s="147" t="s">
+      <c r="M2" s="138" t="s">
         <v>232</v>
       </c>
-      <c r="N2" s="147" t="s">
+      <c r="N2" s="138" t="s">
         <v>233</v>
       </c>
-      <c r="O2" s="149" t="s">
+      <c r="O2" s="140" t="s">
         <v>234</v>
       </c>
-      <c r="P2" s="150" t="s">
+      <c r="P2" s="141" t="s">
         <v>88</v>
       </c>
-      <c r="Q2" s="149" t="s">
+      <c r="Q2" s="140" t="s">
         <v>235</v>
       </c>
-      <c r="R2" s="149"/>
+      <c r="R2" s="140"/>
     </row>
     <row r="3" spans="1:18" ht="30" customHeight="1">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="49"/>
+      <c r="A3" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="151" t="s">
+        <v>237</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="152" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3" s="153" t="s">
+        <v>240</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="I3" s="46" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="47" t="s">
+        <v>241</v>
+      </c>
+      <c r="K3" s="48" t="s">
+        <v>230</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="M3" s="47" t="s">
+        <v>243</v>
+      </c>
+      <c r="N3" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="O3" s="49" t="s">
+        <v>244</v>
+      </c>
+      <c r="P3" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q3" s="49" t="s">
+        <v>245</v>
+      </c>
       <c r="R3" s="49"/>
     </row>
     <row r="4" spans="1:18" ht="30" customHeight="1">
@@ -7794,7 +7965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7815,19 +7986,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="142" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
+      <c r="B1" s="143"/>
+      <c r="C1" s="143"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
+      <c r="H1" s="143"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
     </row>
     <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="24" t="s">
@@ -7865,8 +8036,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="132"/>
-      <c r="B3" s="132"/>
+      <c r="A3" s="144"/>
+      <c r="B3" s="144"/>
       <c r="C3" s="26"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
@@ -7878,8 +8049,8 @@
       <c r="K3" s="34"/>
     </row>
     <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="133"/>
-      <c r="B4" s="134"/>
+      <c r="A4" s="145"/>
+      <c r="B4" s="146"/>
       <c r="C4" s="26"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
@@ -7891,8 +8062,8 @@
       <c r="K4" s="34"/>
     </row>
     <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="132"/>
-      <c r="B5" s="132"/>
+      <c r="A5" s="144"/>
+      <c r="B5" s="144"/>
       <c r="C5" s="26"/>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
@@ -7904,8 +8075,8 @@
       <c r="K5" s="34"/>
     </row>
     <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="134"/>
-      <c r="B6" s="134"/>
+      <c r="A6" s="146"/>
+      <c r="B6" s="146"/>
       <c r="C6" s="26"/>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
@@ -7917,8 +8088,8 @@
       <c r="K6" s="34"/>
     </row>
     <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="134"/>
-      <c r="B7" s="134"/>
+      <c r="A7" s="146"/>
+      <c r="B7" s="146"/>
       <c r="C7" s="26"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -7930,8 +8101,8 @@
       <c r="K7" s="34"/>
     </row>
     <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="134"/>
-      <c r="B8" s="134"/>
+      <c r="A8" s="146"/>
+      <c r="B8" s="146"/>
       <c r="C8" s="26"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
@@ -7943,8 +8114,8 @@
       <c r="K8" s="34"/>
     </row>
     <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="134"/>
-      <c r="B9" s="134"/>
+      <c r="A9" s="146"/>
+      <c r="B9" s="146"/>
       <c r="C9" s="26"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -7956,8 +8127,8 @@
       <c r="K9" s="34"/>
     </row>
     <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="133"/>
-      <c r="B10" s="133"/>
+      <c r="A10" s="145"/>
+      <c r="B10" s="145"/>
       <c r="C10" s="26"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
@@ -7995,7 +8166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8018,36 +8189,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="147" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="136"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="148"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="137"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="138"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="150"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="9" t="s">
@@ -8353,7 +8524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8376,36 +8547,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="147" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="136"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="148"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="137"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="138"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="150"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="9" t="s">
@@ -8735,7 +8906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8758,36 +8929,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="147" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="136"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="148"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="137"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="138"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="150"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="9" t="s">
@@ -9117,7 +9288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9142,36 +9313,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="147" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="136"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
+      <c r="J1" s="147"/>
+      <c r="K1" s="147"/>
+      <c r="L1" s="147"/>
+      <c r="M1" s="148"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="137"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="137"/>
-      <c r="L2" s="137"/>
-      <c r="M2" s="138"/>
+      <c r="A2" s="149"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="150"/>
     </row>
     <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="9" t="s">
@@ -9501,7 +9672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
